--- a/data/接口case.xlsx
+++ b/data/接口case.xlsx
@@ -1461,7 +1461,7 @@
       </c>
       <c r="N8" s="4" t="inlineStr">
         <is>
-          <t>{"meta":{"errno":"0","msg":"success"},"result":{"page":null,"data":{"orderType":2,"orderNo":"0315227796613697600024252"}},"success":true}</t>
+          <t>{"meta":{"errno":"0","msg":"success"},"result":{"page":null,"data":{"orderType":2,"orderNo":"0315227798415122496031211"}},"success":true}</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>{"token": "915mPAYKlUGATok79dDNlOS7hMNHPPrfGdl1Ln6F2TI9uo/PpVtHLBhdBggHMNMU-1500289aa5f37422b01fcde3d6cc4b300", "orderNo": "0315227796617731136024256"}</t>
+          <t>{"token": "915mPAYKlUGATok79dDNlOS7hMNHPPrfGdl1Ln6F2TI9uo/PpVtHLBhdBggHMNMU-1500289aa5f37422b01fcde3d6cc4b300", "orderNo": "0315227798419829824031216"}</t>
         </is>
       </c>
       <c r="I9" s="10" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="N10" s="4" t="inlineStr">
         <is>
-          <t>{"meta":{"errno":"0","msg":"success"},"result":{"page":null,"data":{"orderType":2,"orderNo":"0315227796614202432024252"}},"success":true}</t>
+          <t>{"meta":{"errno":"0","msg":"success"},"result":{"page":null,"data":{"orderType":2,"orderNo":"0315227798415616064031212"}},"success":true}</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>{"token": "915mPAYKlUGATok79dDNlOS7hMNHPPrfGdl1Ln6F2TI9uo/PpVtHLBhdBggHMNMU-1500289aa5f37422b01fcde3d6cc4b300", "orderNo": "0315227796618622016024257"}</t>
+          <t>{"token": "915mPAYKlUGATok79dDNlOS7hMNHPPrfGdl1Ln6F2TI9uo/PpVtHLBhdBggHMNMU-1500289aa5f37422b01fcde3d6cc4b300", "orderNo": "0315227798421064768031217"}</t>
         </is>
       </c>
       <c r="I11" s="10" t="inlineStr">
